--- a/data/tests/test_trace.xlsx
+++ b/data/tests/test_trace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James H\git\CacheSimulator\data\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D9B5CF-3BA6-4DD0-BD82-C9EBECC0B5F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BE210A-C25B-4C20-ACD7-753F6EFF3D70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13956" yWindow="1416" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1416" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
         <v>19</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>21</v>
@@ -1450,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6188E94A-6A05-47E4-AF82-BB7F379AF00B}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1503,15 +1503,15 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>IF(B2=1,A2,0)</f>
+        <f t="shared" ref="E2:E17" si="0">IF(B2=1,A2,0)</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IF(C2=1,A2,0)</f>
+        <f t="shared" ref="F2:F17" si="1">IF(C2=1,A2,0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>IF(D2=1,A2,0)</f>
+        <f t="shared" ref="G2:G17" si="2">IF(D2=1,A2,0)</f>
         <v>29</v>
       </c>
     </row>
@@ -1533,15 +1533,15 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>IF(B3=1,A3,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3">
-        <f>IF(C3=1,A3,0)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G3">
-        <f>IF(D3=1,A3,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1563,15 +1563,15 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f>IF(B4=1,A4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>IF(C4=1,A4,0)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G4">
-        <f>IF(D4=1,A4,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1593,15 +1593,15 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>IF(B5=1,A5,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F5">
-        <f>IF(C5=1,A5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>IF(D5=1,A5,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1623,15 +1623,15 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f>IF(B6=1,A6,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F6">
-        <f>IF(C6=1,A6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>IF(D6=1,A6,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1653,15 +1653,15 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>IF(B7=1,A7,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>IF(C7=1,A7,0)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="G7">
-        <f>IF(D7=1,A7,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1683,15 +1683,15 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>IF(B8=1,A8,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>IF(C8=1,A8,0)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G8">
-        <f>IF(D8=1,A8,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1713,15 +1713,15 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>IF(B9=1,A9,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>IF(C9=1,A9,0)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="G9">
-        <f>IF(D9=1,A9,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1743,15 +1743,15 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>IF(B10=1,A10,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>IF(C10=1,A10,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>IF(D10=1,A10,0)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1773,15 +1773,15 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IF(B11=1,A11,0)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11">
-        <f>IF(C11=1,A11,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>IF(D11=1,A11,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1803,15 +1803,15 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <f>IF(B12=1,A12,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>IF(C12=1,A12,0)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="G12">
-        <f>IF(D12=1,A12,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1833,15 +1833,15 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>IF(B13=1,A13,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>IF(C13=1,A13,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>IF(D13=1,A13,0)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1863,15 +1863,15 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>IF(B14=1,A14,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
-        <f>IF(C14=1,A14,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f>IF(D14=1,A14,0)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1893,15 +1893,15 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <f>IF(B15=1,A15,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <f>IF(C15=1,A15,0)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="G15" s="6">
-        <f>IF(D15=1,A15,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1923,15 +1923,15 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>IF(B16=1,A16,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
-        <f>IF(C16=1,A16,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16">
-        <f>IF(D16=1,A16,0)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -1953,15 +1953,15 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f>IF(B17=1,A17,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17">
-        <f>IF(C17=1,A17,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f>IF(D17=1,A17,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
